--- a/Project_Management/Sprint3/Burndown chart.xlsx
+++ b/Project_Management/Sprint3/Burndown chart.xlsx
@@ -5,93 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Documents/FCT/2324/ES/sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Desktop/projES1/Project_Management/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33FA5A5-DF3E-C644-839D-8B96A3D5D11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26318820-1931-C240-9068-CA86D320E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{2A41CEAD-2BAF-DC40-A131-897DDAF3A57F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{2A41CEAD-2BAF-DC40-A131-897DDAF3A57F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$B$16</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$B$17</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$C$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$C$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$C$17:$K$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$D$5</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$E$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$16</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -938,11 +861,43 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$16:$K$16</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>21.6</c:v>
@@ -1004,11 +959,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$17:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>21.6</c:v>
@@ -1842,139 +1829,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Burndown Chart"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Day 0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Day 1</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Day 2</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Day 3</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>Day 4</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>Day 5</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>Day 6</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>Day 7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Completed Effort</v>
-          </cell>
-          <cell r="C12"/>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>2</v>
-          </cell>
-          <cell r="F12">
-            <v>2.5</v>
-          </cell>
-          <cell r="G12">
-            <v>3.5</v>
-          </cell>
-          <cell r="H12">
-            <v>0.5</v>
-          </cell>
-          <cell r="I12">
-            <v>1.5</v>
-          </cell>
-          <cell r="J12">
-            <v>0.5</v>
-          </cell>
-          <cell r="K12">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Remaining Effort</v>
-          </cell>
-          <cell r="C13"/>
-          <cell r="D13">
-            <v>18</v>
-          </cell>
-          <cell r="E13">
-            <v>16</v>
-          </cell>
-          <cell r="F13">
-            <v>13.5</v>
-          </cell>
-          <cell r="G13">
-            <v>10</v>
-          </cell>
-          <cell r="H13">
-            <v>9.5</v>
-          </cell>
-          <cell r="I13">
-            <v>8</v>
-          </cell>
-          <cell r="J13">
-            <v>7.5</v>
-          </cell>
-          <cell r="K13">
-            <v>4.5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Ideal Burndown</v>
-          </cell>
-          <cell r="C14"/>
-          <cell r="D14">
-            <v>18</v>
-          </cell>
-          <cell r="E14">
-            <v>15.428571428571429</v>
-          </cell>
-          <cell r="F14">
-            <v>12.857142857142858</v>
-          </cell>
-          <cell r="G14">
-            <v>10.285714285714285</v>
-          </cell>
-          <cell r="H14">
-            <v>7.7142857142857135</v>
-          </cell>
-          <cell r="I14">
-            <v>5.1428571428571423</v>
-          </cell>
-          <cell r="J14">
-            <v>2.5714285714285694</v>
-          </cell>
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2576,31 +2430,31 @@
         <v>0</v>
       </c>
       <c r="E15" s="19">
-        <f>SUM(E6:E14)</f>
+        <f t="shared" ref="E15:K15" si="0">SUM(E6:E14)</f>
         <v>2.5</v>
       </c>
       <c r="F15" s="19">
-        <f>SUM(F6:F14)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="G15" s="19">
-        <f>SUM(G6:G14)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H15" s="19">
-        <f>SUM(H6:H14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>SUM(I6:I14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J15" s="19">
-        <f>SUM(J6:J14)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="K15" s="19">
-        <f>SUM(K6:K14)</f>
+        <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
       <c r="L15" s="20"/>
@@ -2615,31 +2469,31 @@
         <v>21.6</v>
       </c>
       <c r="E16" s="22">
-        <f>D16-SUM(E6:E14)</f>
+        <f t="shared" ref="E16:K16" si="1">D16-SUM(E6:E14)</f>
         <v>19.100000000000001</v>
       </c>
       <c r="F16" s="23">
-        <f>E16-SUM(F6:F14)</f>
+        <f t="shared" si="1"/>
         <v>16.900000000000002</v>
       </c>
       <c r="G16" s="23">
-        <f>F16-SUM(G6:G14)</f>
+        <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
       <c r="H16" s="23">
-        <f>G16-SUM(H6:H14)</f>
+        <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
       <c r="I16" s="23">
-        <f>H16-SUM(I6:I14)</f>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
       <c r="J16" s="24">
-        <f>I16-SUM(J6:J14)</f>
+        <f t="shared" si="1"/>
         <v>13.600000000000001</v>
       </c>
       <c r="K16" s="24">
-        <f>J16-SUM(K6:K14)</f>
+        <f t="shared" si="1"/>
         <v>1.8000000000000007</v>
       </c>
     </row>
